--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/Distorted_greedy/dataset_04/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/Distorted_greedy/dataset_04/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\Distorted_greedy\dataset_04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2DC14-AACA-4D9F-AADC-E532EEA8FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_dgreedy_dataset_04_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -698,10 +787,10 @@
         <v>2832.224695950144</v>
       </c>
       <c r="S3">
-        <v>6.034285714285715</v>
+        <v>6.0342857142857147</v>
       </c>
       <c r="T3">
-        <v>6.034285714285715</v>
+        <v>6.0342857142857147</v>
       </c>
       <c r="U3">
         <v>1.797457490342693</v>
@@ -722,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.95923537540304</v>
+        <v>0.95923537540304005</v>
       </c>
       <c r="O4">
         <v>5172</v>
@@ -775,13 +864,13 @@
         <v>1.829589039101104</v>
       </c>
       <c r="R4">
-        <v>2823.441097546083</v>
+        <v>2823.4410975460828</v>
       </c>
       <c r="S4">
-        <v>6.231325301204819</v>
+        <v>6.2313253012048193</v>
       </c>
       <c r="T4">
-        <v>6.339743589743589</v>
+        <v>6.3397435897435894</v>
       </c>
       <c r="U4">
         <v>1.846838324373175</v>
@@ -802,7 +891,7 @@
         <v>1.008324319239994</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9792746113989638</v>
+        <v>0.97927461139896377</v>
       </c>
       <c r="O5">
         <v>3267</v>
@@ -852,22 +941,22 @@
         <v>565</v>
       </c>
       <c r="Q5">
-        <v>1.754801680454629</v>
+        <v>1.7548016804546289</v>
       </c>
       <c r="R5">
         <v>1710.537050543134</v>
       </c>
       <c r="S5">
-        <v>5.782300884955752</v>
+        <v>5.7823008849557516</v>
       </c>
       <c r="T5">
-        <v>5.767567567567568</v>
+        <v>5.7675675675675677</v>
       </c>
       <c r="U5">
-        <v>1.752250426223429</v>
+        <v>1.7522504262234291</v>
       </c>
       <c r="V5">
-        <v>1673.501013445997</v>
+        <v>1673.5010134459969</v>
       </c>
       <c r="W5">
         <v>10963</v>
@@ -879,10 +968,10 @@
         <v>10907</v>
       </c>
       <c r="Z5">
-        <v>1.005134317410837</v>
+        <v>1.0051343174108369</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9134948096885813</v>
+        <v>0.91349480968858132</v>
       </c>
       <c r="O6">
         <v>4887</v>
@@ -932,22 +1021,22 @@
         <v>1130</v>
       </c>
       <c r="Q6">
-        <v>1.464360985563769</v>
+        <v>1.4643609855637689</v>
       </c>
       <c r="R6">
-        <v>2102.272086312942</v>
+        <v>2102.2720863129421</v>
       </c>
       <c r="S6">
         <v>4.324778761061947</v>
       </c>
       <c r="T6">
-        <v>4.690322580645161</v>
+        <v>4.6903225806451614</v>
       </c>
       <c r="U6">
-        <v>1.545501360614273</v>
+        <v>1.5455013606142729</v>
       </c>
       <c r="V6">
-        <v>1994.683734628726</v>
+        <v>1994.6837346287259</v>
       </c>
       <c r="W6">
         <v>24504</v>
@@ -959,10 +1048,10 @@
         <v>24179</v>
       </c>
       <c r="Z6">
-        <v>1.013441416104884</v>
+        <v>1.0134414161048839</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1015,19 +1104,19 @@
         <v>1.637437306934459</v>
       </c>
       <c r="R7">
-        <v>1622.940625106471</v>
+        <v>1622.9406251064711</v>
       </c>
       <c r="S7">
-        <v>5.141975308641975</v>
+        <v>5.1419753086419746</v>
       </c>
       <c r="T7">
-        <v>5.141975308641975</v>
+        <v>5.1419753086419746</v>
       </c>
       <c r="U7">
         <v>1.637437306934459</v>
       </c>
       <c r="V7">
-        <v>1622.940625106471</v>
+        <v>1622.9406251064711</v>
       </c>
       <c r="W7">
         <v>12139</v>
@@ -1042,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9970819588936818</v>
+        <v>0.99708195889368179</v>
       </c>
       <c r="O8">
         <v>9232</v>
@@ -1092,22 +1181,22 @@
         <v>1350</v>
       </c>
       <c r="Q8">
-        <v>1.922571117315406</v>
+        <v>1.9225711173154061</v>
       </c>
       <c r="R8">
-        <v>5286.528991624202</v>
+        <v>5286.5289916242018</v>
       </c>
       <c r="S8">
-        <v>6.838518518518518</v>
+        <v>6.8385185185185184</v>
       </c>
       <c r="T8">
-        <v>7.549166666666666</v>
+        <v>7.5491666666666664</v>
       </c>
       <c r="U8">
-        <v>2.021437181893196</v>
+        <v>2.0214371818931962</v>
       </c>
       <c r="V8">
-        <v>5433.275381728165</v>
+        <v>5433.2753817281646</v>
       </c>
       <c r="W8">
         <v>35530</v>
@@ -1119,10 +1208,10 @@
         <v>35507</v>
       </c>
       <c r="Z8">
-        <v>1.000647759596699</v>
+        <v>1.0006477595966989</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1172,22 +1261,22 @@
         <v>405</v>
       </c>
       <c r="Q9">
-        <v>2.296144644673036</v>
+        <v>2.2961446446730358</v>
       </c>
       <c r="R9">
-        <v>2689.06141890742</v>
+        <v>2689.0614189074199</v>
       </c>
       <c r="S9">
-        <v>9.935802469135803</v>
+        <v>9.9358024691358029</v>
       </c>
       <c r="T9">
-        <v>9.935802469135803</v>
+        <v>9.9358024691358029</v>
       </c>
       <c r="U9">
-        <v>2.296144644673036</v>
+        <v>2.2961446446730358</v>
       </c>
       <c r="V9">
-        <v>2689.06141890742</v>
+        <v>2689.0614189074199</v>
       </c>
       <c r="W9">
         <v>15601</v>
@@ -1202,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1255,19 +1344,19 @@
         <v>1.535363024927451</v>
       </c>
       <c r="R10">
-        <v>980.0561934087352</v>
+        <v>980.05619340873523</v>
       </c>
       <c r="S10">
-        <v>4.643010752688172</v>
+        <v>4.6430107526881716</v>
       </c>
       <c r="T10">
-        <v>4.643010752688172</v>
+        <v>4.6430107526881716</v>
       </c>
       <c r="U10">
         <v>1.535363024927451</v>
       </c>
       <c r="V10">
-        <v>980.0561934087352</v>
+        <v>980.05619340873523</v>
       </c>
       <c r="W10">
         <v>11471</v>
@@ -1282,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9408112582781457</v>
+        <v>0.94081125827814571</v>
       </c>
       <c r="O11">
         <v>2811</v>
@@ -1335,19 +1424,19 @@
         <v>1.96240980600541</v>
       </c>
       <c r="R11">
-        <v>1640.848126627863</v>
+        <v>1640.8481266278629</v>
       </c>
       <c r="S11">
-        <v>7.116455696202531</v>
+        <v>7.1164556962025314</v>
       </c>
       <c r="T11">
-        <v>6.6825</v>
+        <v>6.6825000000000001</v>
       </c>
       <c r="U11">
         <v>1.899492169030937</v>
       </c>
       <c r="V11">
-        <v>1513.203132387625</v>
+        <v>1513.2031323876249</v>
       </c>
       <c r="W11">
         <v>14259</v>
@@ -1360,9 +1449,52 @@
       </c>
       <c r="Z11">
         <v>1.010130348540663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.97898980136624125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0037678160893075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.91349480968858132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0134414161048839</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>